--- a/vapi.xlsx
+++ b/vapi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/anant_mittal_global_ntt/Documents/Documents/automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/anant_mittal_global_ntt/Documents/Documents/manappuram_voice_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_D81EA73666D249A56AC681459DF3C6094CF1180E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBDA4048-69A3-4E0E-B159-27DF9A842164}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_D81EA73666D249A56AC681459DF3C6094CF1180E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D3ECC1-A26F-47E0-90D9-D2FE1A369A0E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Anant</t>
+    <t>Mittal</t>
   </si>
   <si>
     <t>ma</t>
@@ -107,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -313,7 +317,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
